--- a/inst/documentation/fhimaps_ref.xlsx
+++ b/inst/documentation/fhimaps_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/Documents/GitHub/fhimaps/inst/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhimaps\inst\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD4900-6E52-6940-A96C-8E6545237B55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D5DD4900-6E52-6940-A96C-8E6545237B55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{D22F1E3D-FAB4-4205-AC1C-7520D7C24FC0}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27520" windowHeight="17040" xr2:uid="{2F17CE2D-A677-B445-A9FA-8A0D7952F86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F17CE2D-A677-B445-A9FA-8A0D7952F86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -78,15 +78,6 @@
     <t>norway_nuts3_map_b2020_default_sf</t>
   </si>
   <si>
-    <t>norway_nuts3_positions_geolabels_b2017_default_dt</t>
-  </si>
-  <si>
-    <t>norway_nuts3_positions_geolabels_b2019_default_dt</t>
-  </si>
-  <si>
-    <t>norway_nuts3_positions_geolabels_b2020_default_dt</t>
-  </si>
-  <si>
     <t>norway_lau2_map_b2019_default_dt</t>
   </si>
   <si>
@@ -165,7 +156,19 @@
     <t>sf</t>
   </si>
   <si>
-    <t>oslo_ward_position_b2020_geolabels_b2020_default_dt</t>
+    <t>oslo_ward_position_geolabels_b2020_default_dt</t>
+  </si>
+  <si>
+    <t>norway_nuts3_position_geolabels_b2017_default_dt</t>
+  </si>
+  <si>
+    <t>norway_nuts3_position_geolabels_b2019_default_dt</t>
+  </si>
+  <si>
+    <t>norway_nuts3_position_geolabels_b2020_default_dt</t>
+  </si>
+  <si>
+    <t>norway_nuts3_position_geolabels_b2020_insert_oslo_dt</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,21 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43CB2E-9A09-7A47-86D5-A07830EF818A}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="131" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,602 +563,625 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>2020</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>2020</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>2020</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2017</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>2017</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>2017</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>2020</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>2020</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>2020</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>2017</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>2017</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="E21">
-        <v>2020</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>2017</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24">
-        <v>2020</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25">
-        <v>2020</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27">
-        <v>2020</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
+      <c r="E28">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/inst/documentation/fhimaps_ref.xlsx
+++ b/inst/documentation/fhimaps_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhimaps\inst\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D5DD4900-6E52-6940-A96C-8E6545237B55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{D22F1E3D-FAB4-4205-AC1C-7520D7C24FC0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D5DD4900-6E52-6940-A96C-8E6545237B55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4A996E5-C958-454E-9AA9-0C5533A37859}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F17CE2D-A677-B445-A9FA-8A0D7952F86A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>norway_nuts3_position_geolabels_b2020_insert_oslo_dt</t>
+  </si>
+  <si>
+    <t>norway_lau2_position_geolabels_b2020_default_dt</t>
+  </si>
+  <si>
+    <t>norway_lau2_position_geolabels_b2020_insert_oslo_dt</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43CB2E-9A09-7A47-86D5-A07830EF818A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="131" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1048,22 +1054,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -1071,19 +1077,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F24" t="s">
         <v>36</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1106,7 +1112,7 @@
         <v>34</v>
       </c>
       <c r="E25">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
@@ -1117,22 +1123,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -1140,30 +1146,30 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1172,15 +1178,61 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="E28">
-        <v>2020</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E30">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
         <v>41</v>
       </c>
     </row>
